--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(R)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(R).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(R)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ran
-Ranunculus- Renonculacées
+          <t>Ran</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ranunculus- Renonculacées
 Ranunculus abortivus - Renoncule abortive
 Ranunculus acris - Renoncule âcre ou Bouton d'or
 Ranunculus alismaefolius alismaefolius - Renoncule à feuilles d'alisme
@@ -559,9 +576,43 @@
 Ranunculus sceleratus multifidus - Renoncule scélérate multifide
 Ranunculus seguieri - Renoncule de Séguier
 Ranunculus sulphureus - Renoncule sulfureuse
-Ranunculus trichophyllus - Renoncule capillaire ou Renoncule à feuilles capillaires
-Rap
-Raphanus - Brassicacées
+Ranunculus trichophyllus - Renoncule capillaire ou Renoncule à feuilles capillaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ra</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rap</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphanus - Brassicacées
 Raphanus raphanistrum - Ravenelle
 Raphanus sativus - Radis
 Raphanus sativus campestris  - Raifort champètre ou « Raifort de l'Ardèche »
@@ -571,39 +622,112 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Re</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rec
-Recordoxylon
-Rei
-Reichardia
-Reichardia
-Res
-Reseda - Résédacées
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rec</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Recordoxylon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rei</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Reichardia
+Reichardia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Res</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Reseda - Résédacées
 Reseda lutea - Réséda jaune
 Reseda odorata - Réséda odorant
 Retama
@@ -611,48 +735,121 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Rh</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rha
-Rhamnus - Rhamnacées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rha</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rhamnus - Rhamnacées
 Rhamnus alaternus - Nerprun alaterne
 Rhamnus catharticus - Nerprun purgatif
 Rhapis
-Rhapis excelsa - Rhapis, Palmier d'appartement
-Rhe
-Rheum - Polygonacées
+Rhapis excelsa - Rhapis, Palmier d'appartement</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rhe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rheum - Polygonacées
 Rheum officinale
 Rheum palmatum
 Rheum rhabarbarum
 Rheum rhaponticum - Rhubarbe
 Rheum tataricum
-Rheum Xhybridum - Rhubarbe
-Rhi
-Rhinantus - Scrophulariacées
+Rheum Xhybridum - Rhubarbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rhi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rhinantus - Scrophulariacées
 Rhinantus alectorolophus - Grand Rhinanthe
 Rhinanthus alpinus - Rhinanthe des Alpes
 Rhinanthus angustifolius
@@ -682,115 +879,397 @@
 Rhinanthus songeonii
 Rhinanthus subulatus
 Rhipsalidopsis
-Rhipsalidopsis gaertneri - Cactus de Pâques
-Rho
-Rhododendron - Éricacées
+Rhipsalidopsis gaertneri - Cactus de Pâques</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rho</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Rhododendron - Éricacées
 Rhododendron ferrugineum - Rhododendron ferrugineux
-Rhododendron hirsutum - Rhododendron cilié
-Rhu
-Rhus - Anacardiacées
+Rhododendron hirsutum - Rhododendron cilié</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rhu</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rhus - Anacardiacées
 Rhus pentaphylla - Rhus à cinq feuilles
 Rhus typhina - Sumac vinaigrier
-Rhus vernix
-Rhy
-Rhynchosia
+Rhus vernix</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rhy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhynchosia
 Rhynchospora
 Rhynchospora capitellata
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ri</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rib
-Ribes -  Grossulariacées
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rib</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ribes -  Grossulariacées
 Ribes nigrum - Cassis noir
 Ribes glandulosum
 Ribes lacustre - Cassis des marais
 Ribes oxyacanthoides
-Ribes triste
-Ric
-Riccia
+Ribes triste</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ri</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ric</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Riccia
 Riccia breidleri - Riccie de Breidler
 Richardia - Aracées
 Richardia africana ou Calla aethiopica ou Zantedeschia aethiopica - Arum blanc
 Richardia elliottiana ou Calla elliottiana - Arum jaune
 Richardia Rehmanni ou Zantedeschia rehmanni - Arum rose
 Ricinus - Euphorbiacées
-Ricinus communis - Ricin commun
-Rie
-Riedeliella
+Ricinus communis - Ricin commun</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ri</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riedeliella
 Riella
 Riella helicophylla
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Ro</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rob
-'Robinia - Fabacées
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rob</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>'Robinia - Fabacées
 Robinia pseudoacacia - Robinier faux-acacia
 Robinia pseudoacacia Bessoniana
-Robinia pseudoacacia Umbraculifera
-Rod
-Rodgersia -
-Rodgersia oesculifolia
-Rom
-Romneya
+Robinia pseudoacacia Umbraculifera</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ro</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rod</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rodgersia -
+Rodgersia oesculifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ro</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Rom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Romneya
 Romneya Coulteri
 Romulea
-Romulea columnae ou Romulea parviflora - Romulée à petites fleurs
-Ros
-Rosa - Rosacées
+Romulea columnae ou Romulea parviflora - Romulée à petites fleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ro</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ros</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rosa - Rosacées
 Rosa acicularis - Rosier aciculaire
 Rosa banksiae
 Rosa banksiae alba
@@ -813,42 +1292,81 @@
 Rosa woodsii - Rosier de Woods
 Rosmarinus - Lamiacées
 Rosmarinus officinalis - Romarin officinal
-Rosmarinus officinalis albiflorus -  Romarin officinal à fleurs blanches
-Rou
-Rouya
+Rosmarinus officinalis albiflorus -  Romarin officinal à fleurs blanches</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ro</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Rou</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouya
 Rouya polygama - Thapsie de Rouy
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Ru</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rub
-Rubia - Rubiacées
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rub</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Rubia - Rubiacées
 Rubia peregrina - Garance voyageuse
 Rubus - Rosacées
 Rubus acaulis - Ronce acaule
@@ -896,29 +1414,199 @@
 Rubus trifrons - Ronce à trois folioles
 Rubus univocus
 Rubus vermontanus - Ronce du Vermont
-Rubus victorinii - Ronce de Victorin
-Rud
-Rudbeckia - Astéracées
+Rubus victorinii - Ronce de Victorin</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rud</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Rudbeckia - Astéracées
 Rudbeckia bicolor - Rudbeckia annuel
 Rudbeckia laciniata
 Rudbeckia purpurea - Rudbeckia pourpre
 Rudbeckia purpurea grandiflora -  Rudbeckia pourpre à grandes fleurs
-Rudbeckia speciosa - Rudbeckia vivace
-Rum
-Rumex - Polygonacées
+Rudbeckia speciosa - Rudbeckia vivace</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Rum</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Rumex - Polygonacées
 Rumex acetosa - Oseille commune
 Rumex acetosella - Petite oseille
 Rumex crispus - Oseille crépue ou « Patience crépue », « Parelle »
 Rumex patienta - Oseille-épinard
-Rumex rupestris - Oseille des rochers
-Rup
-Ruppia - Potamogétonacées
-Ruppia maritima
-Rus
-Ruscus - Ruscacées
-Ruscus aculeatus - Fragon faux houx ou petit houx
-Rut
-Ruta - Rutacées
+Rumex rupestris - Oseille des rochers</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Rup</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ruppia - Potamogétonacées
+Ruppia maritima</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rus</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ruscus - Ruscacées
+Ruscus aculeatus - Fragon faux houx ou petit houx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(R)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruta - Rutacées
 Ruta chalepensis - Rue à feuilles étroites
 Ruta corsica - Rue de Corse
 Ruta graveolens - Rue des jardins
